--- a/ig/ch-epl/ValueSet-edqm-combination-packaging.xlsx
+++ b/ig/ch-epl/ValueSet-edqm-combination-packaging.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-22T14:35:11+00:00</t>
+    <t>2025-12-11T12:35:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
